--- a/outputs/KOLKATA1.xlsx
+++ b/outputs/KOLKATA1.xlsx
@@ -425,8 +425,8 @@
       <c r="A1" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations 2. Information Processing Style
-Why: ABI is motivated to achieve the task of adding information to the README. Considering ABI's comprehensive information processing style, they will likely recognize that finding the README file is a crucial step before they can add information to it. The file list on the repository page clearly shows the README.md file, making it apparent that this is the document to be edited.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The README file is prominently listed in the file directory on the GitHub repository page. Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she would likely recognize that finding the README is a necessary step toward adding information to it. The README file is clearly labeled and easily accessible, making it a logical step in the process.</t>
         </is>
       </c>
     </row>
@@ -435,7 +435,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style
-Why: Scrolling down is a straightforward action that aligns with ABI's comprehensive information processing style. The page layout is clear, with a visible list of files including the README.md file, making it easy for ABI to know what to do next. Scrolling down will help ABI gather more information if needed, which suits their bursty style of first collecting information before acting.</t>
+Why: Scrolling down to read more information aligns with Abi's comprehensive information processing style. The page is well-structured, and the README file is clearly listed in the file directory at the top. This makes it easy for Abi to understand that scrolling down to read more details is a logical next step in finding the README.</t>
         </is>
       </c>
     </row>
@@ -443,8 +443,8 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 4. Computer Self-Efficacy 5. Learning Style
-Why: After scrolling down, ABI will not necessarily know if they have done the right thing or if they are making progress towards their goal. The README.md file is visible in the file list at the top, and scrolling down does not provide additional information about editing the README. Additionally, there is no direct guidance or tutorial on how to add information to the README, which is necessary for ABI's process-oriented learning style. The lack of clear instructions or confirmation may cause ABI to feel uncertain about their next steps.</t>
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: After scrolling down, Abi will see a lot of information about the project, but this information is not directly related to finding or editing the README file. The README file is listed at the top of the page in the file directory, and scrolling down does not provide additional guidance on how to access or edit it. Given Abi's low confidence in unfamiliar computing tasks and preference for process-oriented learning, she might not feel assured that she is making progress toward her goal of adding information to the README. The page does not provide clear, step-by-step instructions or indications that scrolling down is the correct action to take.</t>
         </is>
       </c>
     </row>
@@ -452,8 +452,8 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations 2. Information Processing Style
-Why: The README.md file is clearly listed among the files in the repository, making it evident to ABI that clicking on it is the next logical step towards finding the README to add information. This aligns with ABI’s motivation to complete the task and their comprehensive information processing style, as it is a straightforward action with a clear purpose. The page provides enough context and visual cues (the file list) to guide ABI to click on README.md.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The README.md file is clearly listed in the file directory at the top of the page. Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she will likely recognize that clicking on the README.md file is a necessary step toward adding information to it. The file is prominently displayed and labeled, making it clear that this is the correct action to take.</t>
         </is>
       </c>
     </row>
@@ -461,8 +461,8 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 4. Computer Self-Efficacy 5. Learning Style
-Why: After clicking on README.md, ABI will land on a page displaying the contents of the README file. However, the page does not provide clear instructions or guidance on how to add information to the README. While ABI can see the current content, they might not know how to proceed with editing it due to their low computer self-efficacy and preference for process-oriented learning. The lack of explicit instructions or an editing interface may cause uncertainty and hinder their progress towards the goal.</t>
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: After clicking on README.md, Abi will land on a page that displays the contents of the README file. While this page provides a lot of information about the project, it does not provide clear instructions or guidance on how to edit the README file. Given Abi's low confidence in unfamiliar computing tasks and preference for process-oriented learning, she might not feel assured that she is making progress toward her goal of adding information to the README. The page lacks step-by-step instructions or an edit button that would make it clear how to proceed with editing the file.</t>
         </is>
       </c>
     </row>
@@ -470,8 +470,8 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations 2. Information Processing Style
-Why: ABI is motivated to complete the task of adding information to the README. Given their comprehensive information processing style, they will likely recognize that finding out how to edit the README is a necessary step towards achieving the overall use case. They will understand that simply viewing the README is not sufficient—they need to know how to make changes to it. This awareness aligns with their motivation and information processing style.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she would likely recognize that finding out how to edit the README is a necessary step toward achieving the overall use case of adding information to it. The need to understand the editing process is a logical and essential part of the task, and Abi would consider this a step toward her goal.</t>
         </is>
       </c>
     </row>
@@ -479,8 +479,8 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 4. Computer Self-Efficacy 5. Learning Style
-Why: The pencil button, which typically indicates "edit," might not be immediately obvious to ABI due to their low computer self-efficacy and preference for explicit instructions. The page does not provide any textual guidance or tutorial indicating that the pencil button is used to edit the README. Without clear instructions or a step-by-step guide, ABI might not know that clicking the pencil button is the correct action to take, leading to uncertainty and hesitation.</t>
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The pencil button, which is the edit button, is not explicitly labeled or explained on the page. Given Abi's low confidence in unfamiliar computing tasks and preference for process-oriented learning, she might not immediately recognize that clicking the pencil button is the correct action to take for editing the README. Without clear instructions or labels, Abi might hesitate to click the button, fearing it could lead to an unintended action.</t>
         </is>
       </c>
     </row>
@@ -488,8 +488,8 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations 2. Information Processing Style
-Why: After clicking the pencil button, ABI will be taken to an editing interface displaying the README content in a text editor. This visual change and the appearance of text editing options will clearly indicate to ABI that they are now in the correct place to edit the README. The interface provides a straightforward way to make changes, and the presence of "Commit changes" and "Cancel changes" buttons reinforces that ABI is making progress towards their goal. This aligns with ABI’s motivation to complete the task and their comprehensive information processing style, as they can now see the direct way to edit the content.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking the pencil button, Abi will be taken to an edit page where she can see the README file in an editable format. This page clearly indicates that she is in an editing mode with options to "Cancel changes" or "Commit changes." Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she will recognize that she is making progress toward her goal of adding information to the README. The interface provides clear indications that she is in the right place to make edits, and the presence of the "Commit changes" button confirms that she can save her modifications.</t>
         </is>
       </c>
     </row>
@@ -497,8 +497,8 @@
       <c r="A9" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations 2. Information Processing Style
-Why: The editing interface is clear and straightforward, displaying the text of the README file in an editable format. This makes it evident to ABI that they can now make changes directly. The presence of the text editor, along with the familiar "Commit changes" and "Cancel changes" buttons, provides a clear indication that ABI is in the right place to edit the file. This aligns with ABI's motivation to complete the task and their comprehensive information processing style, as they can now directly interact with the content they need to modify.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page clearly shows the README file in an editable format, with options to "Cancel changes" or "Commit changes" prominently displayed. Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she will understand that she can now edit the file directly. The interface is straightforward and provides a clear indication that she is in the right place to make the necessary edits. The presence of the editing toolbar and the editable text area makes it evident that she can proceed with editing the file.</t>
         </is>
       </c>
     </row>
@@ -506,8 +506,8 @@
       <c r="A10" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations 2. Information Processing Style
-Why: After editing the file, ABI will see their changes reflected in the text editor. The clear interface and the presence of "Commit changes" and "Cancel changes" buttons confirm that ABI has edited the file correctly and is making progress towards their goal. The explicit confirmation options (commit or cancel) will give ABI the confidence that they are on the right track. This aligns with ABI's motivation to complete the task and their comprehensive information processing style, as they can directly see and verify the changes they have made.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After editing the file, Abi will see her changes reflected in the editable text area. The interface provides clear options to "Cancel changes" or "Commit changes," which indicates that she is making progress toward her goal. Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she will recognize that she has successfully edited the file and is ready to proceed to the next step of committing the changes. The interface is straightforward and confirms that her actions are being recorded, providing the necessary feedback to assure her that she is on the right track.</t>
         </is>
       </c>
     </row>
@@ -515,8 +515,8 @@
       <c r="A11" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 4. Computer Self-Efficacy 5. Learning Style
-Why: The "Preview changes" button is not prominently labeled or accompanied by an explicit instruction that it allows ABI to preview the changes made to the README file. ABI, with their low computer self-efficacy and preference for clear, step-by-step instructions, may not immediately understand that this button should be clicked to see the effects of their edits before committing them. The page does not provide sufficient guidance or cues for ABI to confidently take this action.</t>
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The "Preview changes" button is not prominently displayed or labeled in the provided image. Given Abi's low confidence in unfamiliar computing tasks and preference for process-oriented learning, she might not immediately recognize that she needs to click "Preview changes" to see her edits before committing them. The interface does not provide clear guidance or instructions on this step, which could cause hesitation or confusion for Abi.</t>
         </is>
       </c>
     </row>
@@ -524,8 +524,8 @@
       <c r="A12" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations 2. Information Processing Style
-Why: After clicking "Preview changes," ABI will see a rendered view of the README file with their edits visible. This provides immediate visual feedback, confirming that they have made changes correctly and are making progress towards their goal. The clear distinction between the "Edit" and "Preview" modes allows ABI to understand that they are in the preview stage, reviewing their changes. This aligns with ABI's motivation to verify their work and their comprehensive information processing style, as they can see the final appearance of their changes before committing them.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking "Preview changes," Abi will see a rendered view of the README file with her edits included. This provides clear feedback that her changes have been made correctly. Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she will recognize that she is making progress toward her goal. The interface clearly shows the updated content, confirming that her edits are correct and ready to be committed. This visual confirmation helps Abi understand that she is on the right track and has all the information she needs to proceed.</t>
         </is>
       </c>
     </row>

--- a/outputs/KOLKATA1.xlsx
+++ b/outputs/KOLKATA1.xlsx
@@ -424,178 +424,222 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>This appears to be the homepage/GitHub repository page for JabRef, which is a bibliography management software. The image shows the project's README documentation and repository contents, including recent commits, features, and various documentation sections. It contains details about JabRef's capabilities like managing bibliographic information, importing references, and customization options.
-Given that this appears to be looking for README-related information on the main project page, this seems like a logical and natural step in achieving the use case. Finding and viewing the README is typically one of the first things users do when exploring a new repository or project, as it contains essential information about the software's features, setup, and usage. So yes, this would likely be considered a reasonable step by many users, including ABI, when trying to gather information about the project.
-The README is prominently displayed on the main page and contains well-organized sections about features, contributing guidelines, and licensing information - making it an obvious first place to look for project documentation and guidance.</t>
+          <t>Answer: YES
+Facets: 
+1. Information Processing Style
+2. Motivations
+Why: ABI will consider finding the README as a necessary first step because:
+1. Her comprehensive information processing style aligns with needing to locate the source documentation first before making any changes
+2. She is motivated to find the README as it's directly related to her task of adding information to it
+3. The page shows a clear repository structure with files listed, which provides a systematic way to locate the README, matching her preference for organized information gathering
+The layout of the GitHub repository page with its clear file listing makes it straightforward for ABI to understand that she needs to locate the README file first, which aligns with her methodical approach to tasks.</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Looking at the image, it shows the GitHub repository page for JabRef Bibliography Management software. The page displays a long README file that contains detailed information about the project, including features, installation instructions, and contribution guidelines. The layout is typical of a GitHub repository with a file browser at the top and the README content below.
-For the scenario of "Add information to the README" and subgoal of "Find the README", this page is perfectly suitable for taking that action because:
-1. The README is clearly visible and already displayed on the main page
-2. The content is well-structured and readable
-3. GitHub's interface makes it easy to locate and scroll through README files
-4. There's a clear view of the markdown-formatted documentation
-A user would be able to successfully scroll through this page to read the README content, as it follows the standard GitHub repository layout that most users are familiar with. The scroll functionality is a basic web browser feature that would work as expected on this page.
-So yes, this page provides everything needed to accomplish the action of scrolling down to read the README content.</t>
+          <t>Answer: YES
+Facets:
+1. Information Processing Style
+2. Learning Style
+3. Computer Self-Efficacy
+Why: ABI will be comfortable with scrolling down because:
+1. Scrolling aligns with her comprehensive information processing style as she prefers to gather all available information before acting
+2. The page has a standard layout with a visible scroll bar, which is a familiar process-oriented interaction she's comfortable with
+3. Her low computer self-efficacy isn't challenged by scrolling, as it's a basic, familiar action that doesn't require technical expertise
+4. The page shows clear visual cues that there is more content below (partial content visible at bottom), indicating that scrolling is necessary to see more information</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>This image shows the GitHub repository page for JabRef Bibliography Management software. The page displays a long README document with various sections including Features, Contributing, License, and Acknowledgements. At the top of the page is the standard GitHub repository interface with navigation tabs and commit history. The main content shows documentation about JabRef, which is bibliography management software, including its features like compatibility with BibTeX, citation support, and various database functions. The page has both text content and a screenshot demonstrating the JabRef application interface. This appears to be the main landing page where someone would find comprehensive documentation about the project.
-Given the scenario about adding information to the README, scrolling through this page would allow someone to review the existing content and locate where new information should be added. The clear section headers and organized documentation structure makes it easy to navigate and understand what information is already included.</t>
+          <t>Answer: NO
+Facets:
+1. Information Processing Style
+2. Computer Self-Efficacy
+3. None of the Above
+Why: ABI will not be confident she's making progress because:
+1. After scrolling, there's no clear indication of where the README file is located - it's not immediately visible in the file listing or content shown
+2. With her comprehensive information processing style, she needs clear confirmation that she's found what she's looking for, which isn't provided
+3. Due to her low computer self-efficacy, the lack of explicit README file visibility will make her uncertain if she's looking in the right place
+4. The page shows various technical information and documentation but doesn't clearly point to or highlight the README file, which could overwhelm her with too much information to process at once
+The absence of clear feedback about the README's location and the presence of multiple technical sections would make ABI unsure if she's making progress toward her goal.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Looking at the image, it shows the GitHub repository page for JabRef Bibliography Management software. The README.md file is clearly visible in the file listing on the page. Based on the navigation structure of a typical GitHub repository, clicking on README.md would be a straightforward action since:
-1. The README.md file is directly visible in the file listing
-2. The format follows GitHub's standard repository layout
-3. The file appears to be at the root level of the repository
-4. The filename is clearly labeled as "README.md"
-Yes, ABI would be able to find and click on the README.md file because:
-- It's prominently displayed in a standard location where documentation is typically found
-- The naming is conventional and clear
-- The interface follows GitHub's familiar repository structure
-- No complex navigation or hidden menus are required to access it
-The page provides sufficient clarity and context for ABI to confidently take this action of clicking on the README.md file to view or edit its contents.</t>
+          <t>Answer: NO
+Facets:
+1. Computer Self-Efficacy
+2. Attitude toward Risk
+3. Learning Style
+4. None of the Above
+Why: ABI will struggle to take this action because:
+1. The README.md file is not immediately visible in the image - it would require searching through a long list of files which could be overwhelming
+2. Due to her low computer self-efficacy, she may not be familiar with the ".md" extension or understand that this is the README file she's looking for
+3. Her risk-averse nature means she won't click on files unless she's certain they're the right ones
+4. Without clear instructions or visual indicators pointing to README.md, she won't feel confident about clicking it
+5. The page has too many files and technical terms which could overwhelm her, making it difficult to identify the correct file to click
+The lack of clear guidance and the technical nature of the file structure would make ABI hesitant to click on any file without being certain it's the correct one.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Looking at the image, this appears to be the JabRef README.md file on GitHub, which displays comprehensive documentation about the JabRef Bibliography Management software. After clicking on README.md, a user would definitely know they've made the right choice because:
-1. The page shows the full README content with detailed information about JabRef
-2. The file path at the top shows "jabref/README.md"
-3. The content includes important sections like:
-   - Features
-   - Installation instructions
-   - How to contribute
-   - Bug reporting guidelines
-   - Detailed functionality descriptions
-The page provides all the essential information needed to understand the software and would be the correct destination when looking to add or modify README information. The layout is typical of a GitHub README file, with markdown formatting and clear section organization, confirming that this is indeed the right location for documentation updates.
-So yes, landing on this page would provide clear confirmation that they've reached the correct location and have access to all the information needed to make README modifications.</t>
+          <t>Answer: YES
+Facets:
+1. Information Processing Style
+2. Motivations
+3. Computer Self-Efficacy
+Why: ABI will know she's made progress because:
+1. The page clearly shows "JabRef Bibliography Management" at the top and displays comprehensive documentation, confirming she's found the README
+2. Her comprehensive information processing style is satisfied as the page contains detailed, well-organized information about the project
+3. The content is presented in a readable, structured format with clear headings and sections, which helps with her low computer self-efficacy
+4. She's motivated to continue as she can see this is the main documentation file where she needs to add information
+5. The page provides clear confirmation that this is the project's main documentation, aligning with her goal of adding information to the README
+The clear layout and comprehensive content structure gives ABI confidence that she's found the correct file and can proceed with her task.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Looking at this GitHub repository README page for JabRef (a bibliography management tool), editing it would be a natural step to consider in the use case scenario. The page shows the standard GitHub interface where the README.md file is displayed, and there's a path indicator showing "master &gt; jabref &gt; README.md" at the top.
-For someone wanting to add information to the README, they would need to:
-1. Navigate to the edit function (typically there's an edit button or pencil icon in GitHub's interface)
-2. Make the desired changes to the markdown file
-3. Commit those changes following GitHub's standard process
-Given that ABI personas are typically methodical and like to understand the full process before proceeding, they would likely have anticipated this editing step as part of achieving the overall goal. The README is clearly visible and appears to be in a standard GitHub repository layout that follows conventional patterns for documentation, which would align with ABI's preference for familiar and well-documented processes.
-So yes, ABI would very likely have thought of editing the README as a necessary step toward achieving the overall use case, as it's a logical and required action for adding information to documentation.</t>
+          <t>Answer: YES
+Facets:
+1. Information Processing Style
+2. Motivations
+3. Computer Self-Efficacy
+Why: ABI will consider finding out how to edit as a necessary step because:
+1. Her comprehensive information processing style means she wants to understand the proper procedure before making changes
+2. She is motivated to learn the correct way to edit as she wants to avoid making mistakes due to her low computer self-efficacy
+3. The page shows a "Contributing" section which aligns with her goal, suggesting there are instructions for making changes
+4. Her methodical approach to tasks means she'll want to understand the editing process before attempting any changes
+The presence of a "Contributing" section and clear documentation structure supports ABI's need to understand the proper procedure before making changes, making this a logical next step in her process.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Yes, the action would be clear in this scenario. Looking at the GitHub README.md page for JabRef shown in the image, there's a standard GitHub interface layout where the pencil/edit button is visible in the top-right corner of the content area. This is a common GitHub UI element that appears when viewing a README file.
-The page shows sufficient information for taking this action because:
-1. The file is clearly identified as "README.md" in the file path
-2. The interface follows GitHub's standard layout
-3. The edit (pencil) button is visible in its typical location
-4. The user has navigated to the correct file they want to edit
-Even for someone who might be less familiar with GitHub, the pencil icon is a widely recognized symbol for editing, and it's positioned prominently where users would typically look for editing controls. The page provides good affordance for this editing action through standard GitHub conventions and clear visual cues.
-The full content of the README is visible, confirming this is indeed the correct file to edit, and the UI elements are not obscured or hidden in any way that would make the edit button difficult to locate.</t>
+          <t>Answer: NO
+Facets:
+1. Computer Self-Efficacy
+2. Attitude toward Risk
+3. Learning Style
+4. None of the Above
+Why: ABI will struggle to take this action because:
+1. The pencil icon for editing is not explicitly labeled or explained on the page, and with her low computer self-efficacy, she may not recognize this as the editing button
+2. Her risk-averse nature means she won't click unlabeled buttons without clear indication of their function
+3. Her process-oriented learning style means she would prefer explicit instructions on how to edit rather than having to figure out icon meanings
+4. The page shows a "Contributing" section which suggests there might be specific procedures to follow for making changes, making her hesitant to just click a button
+5. Without clear instructions indicating that the pencil icon is the correct way to edit, she would be uncertain about taking this action
+The lack of explicit instructions about how to edit and the unlabeled nature of the pencil icon would make ABI hesitant to click it without being certain of its function and consequences.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Based on this screenshot of the GitHub interface, yes, clicking the pencil/edit button would be a clear indication of progress. The interface shows a README.md file in edit mode with several indicators that confirm this is the correct action:
-1. The "Edit" tab is visibly active/selected at the top
-2. There's a text editor interface displayed with the markdown content
-3. The interface shows editing controls like "Spaces" and line numbers
-4. There's a "Commit changes..." button in the top right
-5. The URL path shows we're in the jabref repository looking at the README.md file
-All these visual cues would confirm to the user that they've successfully entered edit mode for the README file. Additionally, the interface provides familiar text editing capabilities, making it clear they can now modify the document content. The "Commit changes" button indicates they'll be able to save their changes when ready.
-This matches the user's goal of editing the README, so they would know they're on the right track for adding their desired information.</t>
+          <t>Answer: NO
+Facets:
+1. Computer Self-Efficacy
+2. Information Processing Style
+3. Learning Style
+4. None of the Above
+Why: ABI will feel uncertain about her progress because:
+1. The editing interface shows raw markdown text with technical formatting, which may overwhelm her due to low computer self-efficacy
+2. Her comprehensive information processing style will be challenged by the lack of clear instructions about how to properly edit the markdown format
+3. Her process-oriented learning style isn't supported as there are no clear guidelines or instructions about how to make changes safely
+4. The interface shows multiple technical elements (like tabs for "Edit", "Preview", and "Soft wrap") without clear explanation of their purpose
+5. The page doesn't provide immediate guidance on how to make changes or what formatting to use, which could make her unsure about proceeding
+The technical nature of the editing interface and lack of clear instructions about how to make changes properly would make ABI uncertain about whether she's making progress toward her goal.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Yes, ABI would know what to do at this step based on what's shown in the image. The interface shows a clear edit mode for the README.md file in GitHub's interface, with several helpful elements:
-1. There's an "Edit" tab that's currently active/selected (visible at the top of the editing area)
-2. The text content is displayed in a large editable area
-3. There's a "Commit changes" button visible in the top-right corner
-4. The interface shows line numbers and proper formatting for markdown content
-These elements make it clear that this is where content can be modified, and the interface follows standard GitHub patterns that would be familiar to users who have worked with GitHub before. Even for someone less experienced, the edit interface is straightforward enough with the prominent edit field and clear controls.
-Additionally, the page provides contextual information like file path (README.md) and repository information at the top, helping confirm that ABI is in the right place to make the intended edits.</t>
+          <t>Answer: NO
+Facets:
+1. Computer Self-Efficacy
+2. Learning Style
+3. Attitude toward Risk
+4. None of the Above
+Why: ABI will struggle to proceed with editing because:
+1. The markdown format with special characters (like #, -, and []) is technical and unfamiliar, which challenges her low computer self-efficacy
+2. Her process-oriented learning style needs clear instructions on how to properly format and edit markdown text, which are not provided
+3. Her risk-averse nature makes her hesitant to make changes without understanding the proper formatting rules and potential consequences
+4. The interface lacks clear guidance about:
+   - How to properly format the text
+   - What syntax to use
+   - How to preserve the existing structure
+5. The technical nature of the editing interface with multiple options (Edit, Preview, Soft wrap) without clear explanations would make her uncertain about how to proceed safely
+Without clear instructions about how to properly edit markdown text and maintain the document's structure, ABI would be hesitant to make changes for fear of breaking something.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Yes, if the user takes the Edit action correctly, they will know they're making progress because:
-1. The interface clearly shows they're in edit mode through multiple visual indicators:
-- The "Edit" tab is highlighted/active
-- A text editor interface appears showing the raw markdown content of the README.md file
-- The presence of line numbers on the left side
-- The "Cancel changes" and "Commit changes" buttons at the top right
-2. The content is now editable, which directly enables their goal of adding information to the README. They can:
-- Click anywhere in the text to start making changes
-- Add or modify content using standard text editing functions
-- See options for committing their changes when ready
-3. The interface provides helpful context through:
-- File path breadcrumbs showing they're editing README.md
-- Syntax highlighting for markdown formatting
-- Settings for spaces and soft wrap to customize the editing experience
-So the user can be confident they're in the right place to accomplish their task of editing the README, with clear visual feedback confirming they've taken the correct action toward their goal.</t>
+          <t>Answer: NO
+Facets:
+1. Computer Self-Efficacy
+2. Information Processing Style
+3. Learning Style
+4. None of the Above
+Why: ABI will be uncertain about her progress because:
+1. Due to her low computer self-efficacy, she won't be confident if her edits are formatted correctly in markdown syntax
+2. Her comprehensive information processing style is challenged by the lack of immediate feedback about whether her changes are properly formatted
+3. Her process-oriented learning style needs confirmation that she's editing correctly, but there's no clear guidance about:
+   - If the formatting is correct
+   - If she's maintaining the proper document structure
+   - If her changes will break anything
+4. The interface shows the raw text with technical markdown syntax, but doesn't provide clear visual confirmation that her edits are correct
+5. The "Preview" tab exists but without clear instructions about how to use it to verify changes
+The lack of clear feedback about the correctness of her edits and the technical nature of the markdown format would make ABI unsure if she's making proper progress toward her goal.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Based on the image shown, I can help analyze if ABI can take the action of clicking 'preview change':
-1. Visibility of the option:
-- The 'Preview' tab is clearly visible at the top of the editing interface
-- It's positioned right next to the 'Edit' tab, making it easily discoverable
-2. Interface clarity:
-- The button is standard GitHub interface design
-- The word "Preview" is clear and self-explanatory
-- The interface shows a typical GitHub README.md file editing view
-3. For ABI's cognitive style:
-- ABI is comprehensive and likes to understand everything before proceeding
-- The Preview function is a safe, non-destructive way to check changes
-- The purpose of Preview is clear - to see how changes will look before committing
-Yes, ABI should be able to take this action because:
-- The button is clearly labeled
-- It's a low-risk action (just previewing, not making permanent changes)
-- It aligns with her methodical approach to verify changes before finalizing them
-- The interface provides clear visual feedback about which mode you're in
-The page provides sufficient information and clear controls for ABI to confidently take this action.</t>
+          <t>Answer: YES
+Facets:
+1. Learning Style
+2. Information Processing Style
+3. Computer Self-Efficacy
+4. Attitude toward Risk
+Why: ABI will likely click the 'Preview' tab because:
+1. Her process-oriented learning style aligns with wanting to verify changes before committing them
+2. Her comprehensive information processing style motivates her to check her work thoroughly
+3. Due to her low computer self-efficacy, she'll want to confirm her changes look correct before proceeding
+4. Her risk-averse nature means she'll want to preview changes to ensure she hasn't broken anything
+5. The 'Preview' tab is clearly labeled and its purpose is self-explanatory, making it a safe and logical next step
+The presence of a clear 'Preview' option provides ABI with a safe way to verify her changes before making them permanent, which aligns with her careful and methodical approach to tasks.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>In this GitHub interface for JabRef's README.md file, clicking the 'Preview' tab will show how the markdown formatting will look when rendered. This helps the user confirm if their edits will appear correctly.
-The image shows both the edit and preview options at the top of the page, with tabs to switch between them. The README content is displaying JabRef's bibliography management features, including a screenshot of the application and a list of features like searching across scientific catalogs and importing reference formats.
-To answer the specific question: Yes, clicking 'Preview' will give clear feedback since the user will immediately see how their changes will look when published. They'll know they're making progress because:
-1. The preview renders the markdown formatting in real-time
-2. They can verify if their edits appear as intended
-3. It's a reversible action - they can switch back to edit mode if needed
-4. The interface clearly shows which mode they're in (Edit vs Preview)
-This provides good confirmation that they're on the right track for editing the README file effectively.</t>
+          <t>Answer: YES
+Facets:
+1. Information Processing Style
+2. Computer Self-Efficacy
+3. Learning Style
+4. Attitude toward Risk
+Why: ABI will feel confident about her progress because:
+1. The preview shows her changes in a readable, formatted view that's easier to understand than the raw markdown
+2. Her comprehensive information processing style is supported as she can clearly see how her changes appear in the final format
+3. The preview provides immediate visual feedback that helps with her low computer self-efficacy by showing if her edits look correct
+4. Her process-oriented learning style is satisfied as she can verify her work before making it permanent
+5. Her risk-averse nature is accommodated as she can spot any mistakes before committing the changes
+The preview feature provides clear visual confirmation of her changes in a familiar readable format, giving ABI confidence that she's making the right changes and can verify them before proceeding further.</t>
         </is>
       </c>
     </row>

--- a/outputs/KOLKATA1.xlsx
+++ b/outputs/KOLKATA1.xlsx
@@ -446,9 +446,10 @@
 3. Computer Self-Efficacy
 Why: ABI will be comfortable with scrolling down because:
 1. Scrolling aligns with her comprehensive information processing style as she prefers to gather all available information before acting
-2. The page has a standard layout with a visible scroll bar, which is a familiar process-oriented interaction she's comfortable with
-3. Her low computer self-efficacy isn't challenged by scrolling, as it's a basic, familiar action that doesn't require technical expertise
-4. The page shows clear visual cues that there is more content below (partial content visible at bottom), indicating that scrolling is necessary to see more information</t>
+2. Scrolling is a basic, familiar action that doesn't require technical expertise, which suits her low computer self-efficacy
+3. The page has a standard layout with a visible scroll bar, making it clear there's more content below, which matches her process-oriented learning style
+4. The visible content structure (with files listed and sections) suggests there's relevant information below, motivating her to scroll to find what she needs
+The action of scrolling is a basic, non-risky operation that ABI would be comfortable with as it allows her to systematically review the page's content without making any permanent changes or navigating away from the current page.</t>
         </is>
       </c>
     </row>
@@ -459,13 +460,13 @@
 Facets:
 1. Information Processing Style
 2. Computer Self-Efficacy
-3. None of the Above
-Why: ABI will not be confident she's making progress because:
-1. After scrolling, there's no clear indication of where the README file is located - it's not immediately visible in the file listing or content shown
-2. With her comprehensive information processing style, she needs clear confirmation that she's found what she's looking for, which isn't provided
-3. Due to her low computer self-efficacy, the lack of explicit README file visibility will make her uncertain if she's looking in the right place
-4. The page shows various technical information and documentation but doesn't clearly point to or highlight the README file, which could overwhelm her with too much information to process at once
-The absence of clear feedback about the README's location and the presence of multiple technical sections would make ABI unsure if she's making progress toward her goal.</t>
+3. None of the Above (Information Overload)
+Why: ABI will struggle to confirm progress because:
+1. The page contains overwhelming amount of information (features, licenses, contributing guidelines, etc.) which doesn't align with her comprehensive information processing style as it's too much to process at once
+2. There's no clear indication or direct link to the README file that she's looking for, which may make her doubt if she's on the right track given her low computer self-efficacy
+3. The page shows various technical sections and terms (like "Bug Reports", "License", "Contributing") which might confuse ABI about where exactly to find the README
+4. The information presented is scattered and not specifically focused on helping her locate the README file, making it difficult for her to confirm she's making progress toward her goal
+Even though ABI has scrolled down successfully, the overwhelming amount of information and lack of clear direction to the README would make her uncertain about whether she's making progress toward her goal.</t>
         </is>
       </c>
     </row>
@@ -475,16 +476,16 @@
           <t>Answer: NO
 Facets:
 1. Computer Self-Efficacy
-2. Attitude toward Risk
+2. Attitude Toward Risk
 3. Learning Style
-4. None of the Above
+4. Information Processing Style
 Why: ABI will struggle to take this action because:
-1. The README.md file is not immediately visible in the image - it would require searching through a long list of files which could be overwhelming
-2. Due to her low computer self-efficacy, she may not be familiar with the ".md" extension or understand that this is the README file she's looking for
-3. Her risk-averse nature means she won't click on files unless she's certain they're the right ones
-4. Without clear instructions or visual indicators pointing to README.md, she won't feel confident about clicking it
-5. The page has too many files and technical terms which could overwhelm her, making it difficult to identify the correct file to click
-The lack of clear guidance and the technical nature of the file structure would make ABI hesitant to click on any file without being certain it's the correct one.</t>
+1. The README.md file is not immediately visible on the page - it would require understanding that it might be in the file list at the top, which challenges her low computer self-efficacy
+2. The ".md" extension is technical jargon that ABI might not understand or recognize as the README file she's looking for
+3. Given her risk-averse nature, she might be hesitant to click on files without clear indication that it's the correct one
+4. Her process-oriented learning style means she would prefer clear instructions or indicators pointing to where the README is located
+5. With her comprehensive information processing style, she might get overwhelmed by all the other information on the page and miss the file in the list
+The page doesn't provide clear guidance or indication that README.md is what she needs to click on, and the technical nature of the filename would make ABI uncertain about taking this action.</t>
         </is>
       </c>
     </row>
@@ -497,12 +498,12 @@
 2. Motivations
 3. Computer Self-Efficacy
 Why: ABI will know she's made progress because:
-1. The page clearly shows "JabRef Bibliography Management" at the top and displays comprehensive documentation, confirming she's found the README
-2. Her comprehensive information processing style is satisfied as the page contains detailed, well-organized information about the project
-3. The content is presented in a readable, structured format with clear headings and sections, which helps with her low computer self-efficacy
-4. She's motivated to continue as she can see this is the main documentation file where she needs to add information
-5. The page provides clear confirmation that this is the project's main documentation, aligning with her goal of adding information to the README
-The clear layout and comprehensive content structure gives ABI confidence that she's found the correct file and can proceed with her task.</t>
+1. The page clearly shows "JabRef Bibliography Management" at the top and displays the README content, confirming she's in the right place
+2. The content is well-structured and organized in clear sections (Features, Collect, Organize, etc.), which aligns with her comprehensive information processing style
+3. The breadcrumb trail at the top shows "master &gt; jabref/README.md" which confirms she's viewing the README file
+4. The information presented is detailed and formatted in a readable way, making her feel confident she can understand and work with it
+5. She can see that this is documentation content, which matches her goal of adding information to the README
+The clear layout, organized content, and confirmation that this is indeed the README file will give ABI confidence that she's made progress toward her goal. The structured presentation of information makes it easier for her to process and understand where she needs to make her additions.</t>
         </is>
       </c>
     </row>
@@ -515,11 +516,11 @@
 2. Motivations
 3. Computer Self-Efficacy
 Why: ABI will consider finding out how to edit as a necessary step because:
-1. Her comprehensive information processing style means she wants to understand the proper procedure before making changes
-2. She is motivated to learn the correct way to edit as she wants to avoid making mistakes due to her low computer self-efficacy
-3. The page shows a "Contributing" section which aligns with her goal, suggesting there are instructions for making changes
-4. Her methodical approach to tasks means she'll want to understand the editing process before attempting any changes
-The presence of a "Contributing" section and clear documentation structure supports ABI's need to understand the proper procedure before making changes, making this a logical next step in her process.</t>
+1. Her comprehensive information processing style means she wants to understand the proper process before making changes
+2. She is motivated to find the editing instructions as it's a crucial step to accomplish her goal of adding information
+3. Given her low computer self-efficacy, she would want clear instructions on how to edit rather than trying to figure it out by trial and error
+4. She can see the "Contributing" section at the bottom of the page, which suggests there might be information about how to make changes
+ABI's methodical approach and need for clear guidance before taking action means she would naturally look for instructions on how to edit the README before attempting any changes. This aligns with her careful, process-oriented approach to tasks.</t>
         </is>
       </c>
     </row>
@@ -529,16 +530,16 @@
           <t>Answer: NO
 Facets:
 1. Computer Self-Efficacy
-2. Attitude toward Risk
+2. Attitude Toward Risk
 3. Learning Style
-4. None of the Above
+4. Information Processing Style
 Why: ABI will struggle to take this action because:
-1. The pencil icon for editing is not explicitly labeled or explained on the page, and with her low computer self-efficacy, she may not recognize this as the editing button
-2. Her risk-averse nature means she won't click unlabeled buttons without clear indication of their function
-3. Her process-oriented learning style means she would prefer explicit instructions on how to edit rather than having to figure out icon meanings
-4. The page shows a "Contributing" section which suggests there might be specific procedures to follow for making changes, making her hesitant to just click a button
-5. Without clear instructions indicating that the pencil icon is the correct way to edit, she would be uncertain about taking this action
-The lack of explicit instructions about how to edit and the unlabeled nature of the pencil icon would make ABI hesitant to click it without being certain of its function and consequences.</t>
+1. The pencil icon is not clearly labeled or explained on the page, and given her low computer self-efficacy, she may not be confident about what the icon does
+2. Her risk-averse nature means she would hesitate to click an unlabeled button without knowing exactly what will happen
+3. Her process-oriented learning style means she would prefer explicit instructions rather than having to interpret what an icon means
+4. With her comprehensive information processing style, she would want to be certain about the editing process before clicking any buttons
+5. There's no clear indication or tooltip that explains the pencil icon is for editing, which doesn't provide the confirmation she needs
+The page lacks clear instructions or indicators that the pencil icon is the way to edit the README. Without explicit guidance, ABI would be hesitant to click on an ambiguous icon, preferring instead to look for clear, written instructions on how to make edits.</t>
         </is>
       </c>
     </row>
@@ -550,14 +551,14 @@
 1. Computer Self-Efficacy
 2. Information Processing Style
 3. Learning Style
-4. None of the Above
+4. None of the Above (Technical Interface)
 Why: ABI will feel uncertain about her progress because:
-1. The editing interface shows raw markdown text with technical formatting, which may overwhelm her due to low computer self-efficacy
-2. Her comprehensive information processing style will be challenged by the lack of clear instructions about how to properly edit the markdown format
-3. Her process-oriented learning style isn't supported as there are no clear guidelines or instructions about how to make changes safely
-4. The interface shows multiple technical elements (like tabs for "Edit", "Preview", and "Soft wrap") without clear explanation of their purpose
-5. The page doesn't provide immediate guidance on how to make changes or what formatting to use, which could make her unsure about proceeding
-The technical nature of the editing interface and lack of clear instructions about how to make changes properly would make ABI uncertain about whether she's making progress toward her goal.</t>
+1. The editing interface shows raw markdown text with technical formatting symbols (like #, -, [], etc.), which may be intimidating given her low computer self-efficacy
+2. The interface presents multiple unfamiliar options at the top ("Edit", "Preview", "Code 85% faster with GitHub Copilot") which could overwhelm her comprehensive information processing style
+3. There are no clear instructions or guidance on how to make edits properly, which doesn't support her process-oriented learning style
+4. The technical nature of the editing interface (with line numbers, markdown syntax) without any explanation would make her unsure if she's in the right place or how to proceed
+5. The presence of technical terms like "Spaces", "Soft wrap" and unfamiliar icons might make her doubt if she should be here
+Even though she's reached the editing interface, the technical presentation and lack of clear guidance would make ABI uncertain about whether she's making progress and how to proceed with making her edits.</t>
         </is>
       </c>
     </row>
@@ -568,18 +569,15 @@
 Facets:
 1. Computer Self-Efficacy
 2. Learning Style
-3. Attitude toward Risk
-4. None of the Above
-Why: ABI will struggle to proceed with editing because:
-1. The markdown format with special characters (like #, -, and []) is technical and unfamiliar, which challenges her low computer self-efficacy
-2. Her process-oriented learning style needs clear instructions on how to properly format and edit markdown text, which are not provided
-3. Her risk-averse nature makes her hesitant to make changes without understanding the proper formatting rules and potential consequences
-4. The interface lacks clear guidance about:
-   - How to properly format the text
-   - What syntax to use
-   - How to preserve the existing structure
-5. The technical nature of the editing interface with multiple options (Edit, Preview, Soft wrap) without clear explanations would make her uncertain about how to proceed safely
-Without clear instructions about how to properly edit markdown text and maintain the document's structure, ABI would be hesitant to make changes for fear of breaking something.</t>
+3. Information Processing Style
+4. None of the Above (Technical Interface)
+Why: ABI will struggle to edit the file because:
+1. The markdown formatting syntax (with #, -, [], etc.) is technical and unfamiliar, which challenges her low computer self-efficacy
+2. There are no clear instructions or guidance on how to properly edit the file in markdown format, which doesn't support her process-oriented learning style
+3. The interface shows multiple technical elements (line numbers, special characters, formatting) without explanation, overwhelming her comprehensive information processing style
+4. The bottom of the page shows technical shortcuts (Control + Shift + P) without clear context, which could be confusing
+5. There's no clear indication of where or how to safely add new information without breaking the existing format
+The technical nature of the editing interface without any user-friendly guidance or instructions would make ABI hesitant and uncertain about how to proceed with making changes. She would prefer clear step-by-step instructions on how to edit without risking damage to the existing content.</t>
         </is>
       </c>
     </row>
@@ -591,17 +589,14 @@
 1. Computer Self-Efficacy
 2. Information Processing Style
 3. Learning Style
-4. None of the Above
+4. Attitude Toward Risk
 Why: ABI will be uncertain about her progress because:
-1. Due to her low computer self-efficacy, she won't be confident if her edits are formatted correctly in markdown syntax
-2. Her comprehensive information processing style is challenged by the lack of immediate feedback about whether her changes are properly formatted
-3. Her process-oriented learning style needs confirmation that she's editing correctly, but there's no clear guidance about:
-   - If the formatting is correct
-   - If she's maintaining the proper document structure
-   - If her changes will break anything
-4. The interface shows the raw text with technical markdown syntax, but doesn't provide clear visual confirmation that her edits are correct
-5. The "Preview" tab exists but without clear instructions about how to use it to verify changes
-The lack of clear feedback about the correctness of her edits and the technical nature of the markdown format would make ABI unsure if she's making proper progress toward her goal.</t>
+1. After making edits, there's no clear confirmation that she's edited correctly given the technical markdown format, which affects her low computer self-efficacy
+2. The interface doesn't provide immediate feedback about whether her changes are properly formatted, which doesn't support her comprehensive information processing style
+3. Without step-by-step guidance on how to properly save or confirm changes, she won't be confident in her actions, conflicting with her process-oriented learning style
+4. The presence of buttons like "Commit changes" and "Cancel changes" without clear explanation of consequences makes her risk-averse nature uncomfortable
+5. She can't easily verify if her edits maintain the proper formatting structure of the document, which would make her doubt her actions
+Even though she's made edits, the lack of clear confirmation, guidance, or preview of how her changes will appear makes it difficult for ABI to know if she's successfully progressing toward her goal. Her risk-averse nature would make her particularly uncomfortable about committing changes without being certain of their correctness.</t>
         </is>
       </c>
     </row>
@@ -610,17 +605,17 @@
         <is>
           <t>Answer: YES
 Facets:
-1. Learning Style
-2. Information Processing Style
-3. Computer Self-Efficacy
-4. Attitude toward Risk
-Why: ABI will likely click the 'Preview' tab because:
-1. Her process-oriented learning style aligns with wanting to verify changes before committing them
-2. Her comprehensive information processing style motivates her to check her work thoroughly
-3. Due to her low computer self-efficacy, she'll want to confirm her changes look correct before proceeding
-4. Her risk-averse nature means she'll want to preview changes to ensure she hasn't broken anything
-5. The 'Preview' tab is clearly labeled and its purpose is self-explanatory, making it a safe and logical next step
-The presence of a clear 'Preview' option provides ABI with a safe way to verify her changes before making them permanent, which aligns with her careful and methodical approach to tasks.</t>
+1. Information Processing Style
+2. Learning Style
+3. Attitude Toward Risk
+4. Computer Self-Efficacy
+Why: ABI will be motivated to click 'Preview' because:
+1. The 'Preview' tab is clearly labeled and its purpose is self-explanatory, which aligns with her process-oriented learning style
+2. Her comprehensive information processing style would encourage her to verify her changes before committing them
+3. Given her risk-averse nature, she would want to check her changes before making them permanent
+4. The preview option offers a safe way to verify her edits without committing them, which helps with her low computer self-efficacy
+5. It's a non-destructive action that allows her to review her work, making it a comfortable choice for her cautious approach
+The preview feature provides a safe way for ABI to verify her changes before committing them, which aligns well with her careful and methodical approach to tasks. The clear labeling and non-destructive nature of the preview action makes it an approachable step for her.</t>
         </is>
       </c>
     </row>
@@ -632,14 +627,14 @@
 1. Information Processing Style
 2. Computer Self-Efficacy
 3. Learning Style
-4. Attitude toward Risk
+4. Attitude Toward Risk
 Why: ABI will feel confident about her progress because:
-1. The preview shows her changes in a readable, formatted view that's easier to understand than the raw markdown
-2. Her comprehensive information processing style is supported as she can clearly see how her changes appear in the final format
-3. The preview provides immediate visual feedback that helps with her low computer self-efficacy by showing if her edits look correct
-4. Her process-oriented learning style is satisfied as she can verify her work before making it permanent
-5. Her risk-averse nature is accommodated as she can spot any mistakes before committing the changes
-The preview feature provides clear visual confirmation of her changes in a familiar readable format, giving ABI confidence that she's making the right changes and can verify them before proceeding further.</t>
+1. The preview shows her changes in a formatted, readable view that's easier to understand than the raw markdown, supporting her comprehensive information processing style
+2. She can clearly see how her edits will appear in the final version, which helps with her low computer self-efficacy by providing visual confirmation
+3. The preview provides a safe way to verify her changes before committing them, aligning with her risk-averse nature
+4. The formatted view helps her confirm if she's followed the correct process, supporting her process-oriented learning style
+5. The clear difference between edit and preview modes helps her understand exactly what her changes will look like
+The preview feature provides ABI with the visual confirmation she needs to feel confident about her changes, allowing her to verify her work in a safe, non-destructive way before making any permanent changes. This matches her careful, methodical approach to tasks and need for verification.</t>
         </is>
       </c>
     </row>
